--- a/src/main/resources/static/excel/款式打标下单模板.xlsx
+++ b/src/main/resources/static/excel/款式打标下单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="14085"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>大货款号</t>
   </si>
@@ -47,7 +47,7 @@
     <t>图案</t>
   </si>
   <si>
-    <t>面料材质</t>
+    <t>面料类型</t>
   </si>
   <si>
     <t>场景</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>试销类型</t>
+  </si>
+  <si>
+    <t>计划销售月份</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -593,137 +602,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +740,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,18 +1270,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="21" max="21" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1301,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1329,6 +1342,9 @@
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excel/款式打标下单模板.xlsx
+++ b/src/main/resources/static/excel/款式打标下单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>大货款号</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>计划销售月份</t>
+  </si>
+  <si>
+    <t>色系</t>
+  </si>
+  <si>
+    <t>色块</t>
+  </si>
+  <si>
+    <t>色相</t>
+  </si>
+  <si>
+    <t>销售渠道</t>
   </si>
 </sst>
 </file>
@@ -1270,19 +1282,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="21" max="21" width="14.25" customWidth="1"/>
+    <col min="25" max="25" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,6 +1358,18 @@
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
